--- a/COM/COM_Application/COM_WindApplication/bin/Debug/doc/DemonstrateTemplate.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/doc/DemonstrateTemplate.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Регион</t>
   </si>
@@ -36,21 +36,9 @@
     <t>Минск</t>
   </si>
   <si>
-    <t>Гомель</t>
-  </si>
-  <si>
-    <t>Гродно</t>
-  </si>
-  <si>
     <t>Барановичи</t>
   </si>
   <si>
-    <t>Могилев</t>
-  </si>
-  <si>
-    <t>Витебск</t>
-  </si>
-  <si>
     <t>Брест</t>
   </si>
   <si>
@@ -70,18 +58,56 @@
   </si>
   <si>
     <t>&lt;total&gt;</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>&lt;CountyName&gt;</t>
+  </si>
+  <si>
+    <t>Белоарусь</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Ст. Питербург</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>Катовица</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,19 +181,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -228,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -440,167 +469,195 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>-5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D7" s="3">
+        <v>-9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-8</v>
+      </c>
+      <c r="E8" s="3">
         <v>-5</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C9" s="3">
         <v>-15</v>
       </c>
-      <c r="D5" s="3">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-15</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>-6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/doc/DemonstrateTemplate.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/doc/DemonstrateTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Регион</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Февраль</t>
   </si>
   <si>
-    <t>Среднее</t>
-  </si>
-  <si>
     <t>Минск</t>
   </si>
   <si>
@@ -45,30 +42,9 @@
     <t>Март</t>
   </si>
   <si>
-    <t>&lt;RegionName&gt;</t>
-  </si>
-  <si>
-    <t>&lt;m1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;m2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;m3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;total&gt;</t>
-  </si>
-  <si>
     <t>Страна</t>
   </si>
   <si>
-    <t>&lt;CountyName&gt;</t>
-  </si>
-  <si>
-    <t>Белоарусь</t>
-  </si>
-  <si>
     <t>Украина</t>
   </si>
   <si>
@@ -88,34 +64,24 @@
   </si>
   <si>
     <t>Катовица</t>
+  </si>
+  <si>
+    <t>Беларусь</t>
+  </si>
+  <si>
+    <t>Средняя температура</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,18 +94,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,22 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -212,6 +163,490 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Минск</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Киев</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Москва</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ст. Питербург</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Барановичи</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Катовица</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Брест</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Украина</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Польша</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Минск</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Киев</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Москва</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ст. Питербург</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Барановичи</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Катовица</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Брест</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Украина</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Польша</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Март</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Минск</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Киев</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Москва</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ст. Питербург</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Барановичи</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Катовица</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Брест</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Украина</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Польша</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Средняя температура</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Минск</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Киев</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Москва</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ст. Питербург</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Барановичи</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Катовица</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Брест</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Украина</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Россия</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Польша</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Беларусь</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82063360"/>
+        <c:axId val="82064896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82063360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82064896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82064896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82063360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,7 +904,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,177 +925,179 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
+      <c r="F2" s="3">
+        <f>AVERAGE(C2:E2)</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>-5</v>
       </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="0">AVERAGE(C3:E3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-5</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-10</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>